--- a/To Do.xlsx
+++ b/To Do.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{547AE52C-2A32-4253-AD71-37DD11C51F66}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9E4654E-644F-4369-815E-8AA9767FE707}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,56 +245,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,22 +322,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,365 +622,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C6:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:N23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="19" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="15"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="14"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="15"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="15"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="15"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="14"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="15"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="14"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="I12:N13"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="I14:N15"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="I8:N9"/>
+    <mergeCell ref="C10:H11"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="I16:N17"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="I18:N19"/>
+    <mergeCell ref="C20:H21"/>
+    <mergeCell ref="I20:N21"/>
     <mergeCell ref="C28:H29"/>
     <mergeCell ref="I28:N29"/>
     <mergeCell ref="C22:H23"/>
@@ -963,23 +1005,8 @@
     <mergeCell ref="I24:N25"/>
     <mergeCell ref="C26:H27"/>
     <mergeCell ref="I26:N27"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="I16:N17"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="I18:N19"/>
-    <mergeCell ref="C20:H21"/>
-    <mergeCell ref="I20:N21"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="I8:N9"/>
-    <mergeCell ref="C10:H11"/>
-    <mergeCell ref="I10:N11"/>
-    <mergeCell ref="C12:H13"/>
-    <mergeCell ref="I12:N13"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="I14:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/To Do.xlsx
+++ b/To Do.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9E4654E-644F-4369-815E-8AA9767FE707}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52956C54-F04C-49AC-9F97-52A858EF44EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -268,6 +275,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,24 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,22 +329,58 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C6:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:N9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,12 +731,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
@@ -702,12 +745,12 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
@@ -718,12 +761,12 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
@@ -732,12 +775,12 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
@@ -748,12 +791,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
@@ -762,12 +805,12 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -778,12 +821,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
@@ -792,12 +835,12 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
@@ -808,12 +851,12 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
@@ -822,12 +865,12 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
@@ -838,12 +881,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
@@ -852,12 +895,12 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -868,12 +911,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
@@ -882,12 +925,12 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
@@ -898,12 +941,12 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
@@ -912,12 +955,12 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
@@ -928,12 +971,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
@@ -942,12 +985,12 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
@@ -958,12 +1001,12 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
@@ -972,15 +1015,29 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="I28:N29"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="C24:H25"/>
+    <mergeCell ref="I24:N25"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="I26:N27"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="I16:N17"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="I18:N19"/>
+    <mergeCell ref="C20:H21"/>
+    <mergeCell ref="I20:N21"/>
     <mergeCell ref="C12:H13"/>
     <mergeCell ref="I12:N13"/>
     <mergeCell ref="C14:H15"/>
@@ -991,20 +1048,6 @@
     <mergeCell ref="I8:N9"/>
     <mergeCell ref="C10:H11"/>
     <mergeCell ref="I10:N11"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="I16:N17"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="I18:N19"/>
-    <mergeCell ref="C20:H21"/>
-    <mergeCell ref="I20:N21"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="I28:N29"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="C24:H25"/>
-    <mergeCell ref="I24:N25"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="I26:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
